--- a/yearprice.xlsx
+++ b/yearprice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\AI大赛\气候\rainfall-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D601677E-70E7-40B0-A039-1F4594AA26B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C8C2E8-016E-43E4-B2A6-F25E1780E376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CA92" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1095">
   <si>
     <t>农产品名称</t>
   </si>
@@ -1464,9 +1464,6 @@
     <t>110.42</t>
   </si>
   <si>
-    <t>95.67</t>
-  </si>
-  <si>
     <t>105.52</t>
   </si>
   <si>
@@ -3307,9 +3304,6 @@
   </si>
   <si>
     <t>80.11</t>
-  </si>
-  <si>
-    <t>来源：《2024年中国农产品价格调查年鉴》　第023至027-1页</t>
   </si>
   <si>
     <t>更多数据，尽在数据智研公众号</t>
@@ -3319,7 +3313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3343,18 +3337,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3370,12 +3358,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F7F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F8F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3405,7 +3387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3421,9 +3403,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3695,10 +3674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5810,28 +5789,28 @@
       <c r="F35" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="5" t="s">
         <v>444</v>
       </c>
       <c r="O35" s="5">
@@ -6034,17 +6013,17 @@
       <c r="J39" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>480</v>
+      <c r="K39" s="4">
+        <v>95.67</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>425</v>
       </c>
       <c r="M39" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="N39" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="O39" s="4">
         <v>106.49</v>
@@ -6067,40 +6046,40 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>448</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="M40" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="O40" s="4">
         <v>101.51</v>
@@ -6123,46 +6102,46 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>317</v>
       </c>
       <c r="G41" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="K41" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>181</v>
       </c>
       <c r="M41" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="N41" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="O41" s="5">
         <v>110.26</v>
@@ -6185,7 +6164,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -6221,46 +6200,46 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>402</v>
       </c>
       <c r="M43" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="O43" s="4">
         <v>102.31</v>
@@ -6283,37 +6262,37 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>439</v>
@@ -6322,7 +6301,7 @@
         <v>332</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O44" s="4">
         <v>100.61</v>
@@ -6345,46 +6324,46 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>536</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I45" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="L45" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>541</v>
-      </c>
       <c r="N45" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O45" s="4">
         <v>102.29</v>
@@ -6407,43 +6386,43 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>548</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I46" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="L46" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="M46" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>427</v>
@@ -6469,46 +6448,46 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>556</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>557</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>185</v>
       </c>
       <c r="G47" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="J47" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="K47" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="L47" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="M47" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="N47" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="O47" s="5">
         <v>104.5</v>
@@ -6531,46 +6510,46 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>571</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>390</v>
       </c>
       <c r="H48" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="K48" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="L48" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="N48" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="O48" s="4">
         <v>104.64</v>
@@ -6593,46 +6572,46 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>584</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>239</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="L49" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="M49" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="N49" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>590</v>
       </c>
       <c r="O49" s="4">
         <v>103.17</v>
@@ -6655,7 +6634,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -6664,10 +6643,10 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -6687,7 +6666,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -6696,7 +6675,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>5</v>
@@ -6719,16 +6698,16 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>598</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>106</v>
@@ -6737,28 +6716,28 @@
         <v>414</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="K52" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>603</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>395</v>
       </c>
       <c r="M52" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="N52" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>605</v>
       </c>
       <c r="O52" s="4">
         <v>103.97</v>
@@ -6781,46 +6760,46 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>612</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>157</v>
       </c>
       <c r="I53" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="K53" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>263</v>
       </c>
       <c r="M53" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="N53" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>617</v>
       </c>
       <c r="O53" s="5">
         <v>105.44</v>
@@ -6843,34 +6822,34 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>3</v>
@@ -6879,10 +6858,10 @@
         <v>211</v>
       </c>
       <c r="M54" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="N54" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>629</v>
       </c>
       <c r="O54" s="4">
         <v>101.75</v>
@@ -6905,46 +6884,46 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>637</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>638</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>235</v>
       </c>
       <c r="K55" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="L55" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>640</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O55" s="4">
         <v>102.86</v>
@@ -6967,46 +6946,46 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>645</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>646</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>383</v>
       </c>
       <c r="G56" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="K56" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="L56" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="M56" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="N56" s="4" t="s">
         <v>653</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>654</v>
       </c>
       <c r="O56" s="4">
         <v>108.22</v>
@@ -7029,31 +7008,31 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>656</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>29</v>
@@ -7062,13 +7041,13 @@
         <v>343</v>
       </c>
       <c r="L57" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="M57" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="N57" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>665</v>
       </c>
       <c r="O57" s="4">
         <v>104.8</v>
@@ -7091,31 +7070,31 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>671</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>672</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>303</v>
@@ -7124,13 +7103,13 @@
         <v>66</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M58" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="N58" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="O58" s="4">
         <v>104.7</v>
@@ -7153,46 +7132,46 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>677</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>678</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F59" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="I59" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="K59" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="L59" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="K59" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="L59" s="5" t="s">
+      <c r="M59" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="N59" s="5" t="s">
         <v>685</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>686</v>
       </c>
       <c r="O59" s="5">
         <v>97.49</v>
@@ -7215,7 +7194,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7224,25 +7203,25 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>689</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>274</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>328</v>
       </c>
       <c r="M60" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="N60" s="4" t="s">
         <v>691</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>692</v>
       </c>
       <c r="O60" s="4">
         <v>102.67</v>
@@ -7265,7 +7244,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -7274,25 +7253,25 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="K61" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="L61" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="M61" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="M61" s="4" t="s">
-        <v>699</v>
-      </c>
       <c r="N61" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O61" s="4">
         <v>103.99</v>
@@ -7315,44 +7294,44 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>701</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E62" s="4">
         <v>112.37</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>424</v>
       </c>
       <c r="J62" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="L62" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="M62" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="N62" s="4" t="s">
         <v>706</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>707</v>
       </c>
       <c r="O62" s="4">
         <v>101.81</v>
@@ -7375,34 +7354,34 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>709</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>710</v>
       </c>
       <c r="E63" t="s">
         <v>62</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>714</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>715</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>160</v>
@@ -7411,10 +7390,10 @@
         <v>396</v>
       </c>
       <c r="M63" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="N63" s="4" t="s">
         <v>716</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>717</v>
       </c>
       <c r="O63" s="4">
         <v>94.27</v>
@@ -7437,46 +7416,46 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>720</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>721</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>88</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H64" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="K64" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="L64" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="M64" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="N64" s="4" t="s">
         <v>727</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>728</v>
       </c>
       <c r="O64" s="4">
         <v>105.56</v>
@@ -7499,40 +7478,40 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>152</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>719</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>720</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J65" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="K65" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="L65" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="M65" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="L65" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="M65" s="5" t="s">
+      <c r="N65" s="5" t="s">
         <v>733</v>
-      </c>
-      <c r="N65" s="5" t="s">
-        <v>734</v>
       </c>
       <c r="O65" s="5">
         <v>87.52</v>
@@ -7555,46 +7534,46 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="J66" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="J66" s="4" t="s">
+      <c r="K66" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="L66" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="M66" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="M66" s="4" t="s">
+      <c r="N66" s="4" t="s">
         <v>745</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>746</v>
       </c>
       <c r="O66" s="4">
         <v>101.6</v>
@@ -7617,46 +7596,46 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="J67" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="K67" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="L67" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="M67" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="M67" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>759</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>760</v>
       </c>
       <c r="O67" s="4">
         <v>102.57</v>
@@ -7679,7 +7658,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -7690,25 +7669,25 @@
         <v>392</v>
       </c>
       <c r="H68" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="K68" s="4" t="s">
         <v>764</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>765</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>291</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O68" s="4">
         <v>101.95</v>
@@ -7731,7 +7710,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -7739,28 +7718,28 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>223</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K69" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="L69" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="M69" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="M69" s="4" t="s">
+      <c r="N69" s="4" t="s">
         <v>772</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>773</v>
       </c>
       <c r="O69" s="4">
         <v>103.97</v>
@@ -7783,7 +7762,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -7791,28 +7770,28 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="J70" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="L70" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="L70" s="4" t="s">
+      <c r="M70" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="M70" s="4" t="s">
+      <c r="N70" s="4" t="s">
         <v>781</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>782</v>
       </c>
       <c r="O70" s="4">
         <v>101.54</v>
@@ -7835,7 +7814,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -7843,28 +7822,28 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>784</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>785</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>291</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>396</v>
       </c>
       <c r="L71" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="M71" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="M71" s="5" t="s">
-        <v>788</v>
-      </c>
       <c r="N71" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O71" s="5">
         <v>105.87</v>
@@ -7887,7 +7866,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -7895,25 +7874,25 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>332</v>
       </c>
       <c r="J72" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="L72" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="L72" s="4" t="s">
+      <c r="M72" s="4" t="s">
         <v>793</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>794</v>
       </c>
       <c r="N72" s="4" t="s">
         <v>82</v>
@@ -7939,7 +7918,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -7947,28 +7926,28 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="J73" s="4" t="s">
         <v>798</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>799</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>401</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>412</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O73" s="4">
         <v>96.11</v>
@@ -7991,7 +7970,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -7999,28 +7978,28 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>154</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>401</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>412</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O74" s="4">
         <v>96.11</v>
@@ -8043,7 +8022,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -8051,25 +8030,25 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="J75" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="K75" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="L75" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="M75" s="4" t="s">
         <v>809</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>810</v>
       </c>
       <c r="N75" s="4" t="s">
         <v>60</v>
@@ -8095,7 +8074,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -8103,28 +8082,28 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="I76" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>814</v>
-      </c>
       <c r="J76" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>109</v>
       </c>
       <c r="L76" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="M76" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="M76" s="4" t="s">
+      <c r="N76" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>817</v>
       </c>
       <c r="O76" s="4">
         <v>114.73</v>
@@ -8147,7 +8126,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -8155,22 +8134,22 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H77" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="J77" s="5" t="s">
         <v>820</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>821</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>438</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M77" s="5" t="s">
         <v>396</v>
@@ -8199,7 +8178,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -8208,25 +8187,25 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I78" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="J78" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="K78" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="L78" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="M78" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="L78" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="M78" s="4" t="s">
+      <c r="N78" s="4" t="s">
         <v>827</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>828</v>
       </c>
       <c r="O78" s="4">
         <v>100.92</v>
@@ -8249,41 +8228,41 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>829</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>830</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>831</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>832</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>404</v>
       </c>
       <c r="G79" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="J79" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="L79" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="J79" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="L79" s="4" t="s">
+      <c r="M79" s="4" t="s">
         <v>835</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>836</v>
       </c>
       <c r="N79" s="4" t="s">
         <v>368</v>
@@ -8309,43 +8288,43 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>840</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>841</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>140</v>
       </c>
       <c r="G80" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="I80" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="J80" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="K80" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="L80" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="M80" s="4" t="s">
         <v>847</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>848</v>
       </c>
       <c r="N80" s="4" t="s">
         <v>316</v>
@@ -8371,46 +8350,46 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="G81" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="J81" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="K81" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="L81" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="M81" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="M81" s="4" t="s">
+      <c r="N81" s="4" t="s">
         <v>861</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="O81" s="4">
         <v>106.26</v>
@@ -8433,22 +8412,22 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="E82" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>866</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>867</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>222</v>
@@ -8457,22 +8436,22 @@
         <v>115</v>
       </c>
       <c r="I82" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="K82" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="L82" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="L82" s="4" t="s">
+      <c r="M82" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="M82" s="4" t="s">
+      <c r="N82" s="4" t="s">
         <v>872</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>873</v>
       </c>
       <c r="O82" s="4">
         <v>108.38</v>
@@ -8495,40 +8474,40 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>876</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>877</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>378</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G83" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="H83" s="5" t="s">
         <v>878</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>879</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>96</v>
       </c>
       <c r="J83" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="K83" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="K83" s="5" t="s">
+      <c r="L83" s="5" t="s">
         <v>881</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>882</v>
       </c>
       <c r="M83" s="5" t="s">
         <v>69</v>
@@ -8557,46 +8536,46 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>886</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>887</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>303</v>
       </c>
       <c r="G84" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>889</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>890</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>57</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L84" s="4" t="s">
         <v>154</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O84" s="4">
         <v>112.99</v>
@@ -8619,46 +8598,46 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="G85" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="J85" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="K85" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="L85" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="M85" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="M85" s="4" t="s">
-        <v>905</v>
-      </c>
       <c r="N85" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O85" s="4">
         <v>96.04</v>
@@ -8681,46 +8660,46 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="F86" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="I86" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="J86" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="K86" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="L86" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="M86" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="M86" s="4" t="s">
+      <c r="N86" s="4" t="s">
         <v>918</v>
-      </c>
-      <c r="N86" s="4" t="s">
-        <v>919</v>
       </c>
       <c r="O86" s="4">
         <v>96.36</v>
@@ -8743,46 +8722,46 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="G87" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="H87" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>926</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>927</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>453</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>250</v>
       </c>
       <c r="M87" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="N87" s="4" t="s">
         <v>928</v>
-      </c>
-      <c r="N87" s="4" t="s">
-        <v>929</v>
       </c>
       <c r="O87" s="4">
         <v>95.45</v>
@@ -8805,46 +8784,46 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>933</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>934</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>185</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>427</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>423</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L88" s="4" t="s">
         <v>238</v>
       </c>
       <c r="M88" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="N88" s="4" t="s">
         <v>937</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>938</v>
       </c>
       <c r="O88" s="4">
         <v>92.56</v>
@@ -8867,7 +8846,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -8876,7 +8855,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>248</v>
@@ -8885,16 +8864,16 @@
         <v>423</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>238</v>
       </c>
       <c r="M89" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="N89" s="5" t="s">
         <v>937</v>
-      </c>
-      <c r="N89" s="5" t="s">
-        <v>938</v>
       </c>
       <c r="O89" s="5">
         <v>92.56</v>
@@ -8917,46 +8896,46 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="F90" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>945</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>946</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>369</v>
       </c>
       <c r="I90" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="K90" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="K90" s="4" t="s">
+      <c r="L90" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="L90" s="4" t="s">
+      <c r="M90" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="M90" s="4" t="s">
+      <c r="N90" s="4" t="s">
         <v>951</v>
-      </c>
-      <c r="N90" s="4" t="s">
-        <v>952</v>
       </c>
       <c r="O90" s="4">
         <v>107.53</v>
@@ -8979,46 +8958,46 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="F91" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="G91" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="J91" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="K91" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="L91" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="M91" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="M91" s="4" t="s">
+      <c r="N91" s="4" t="s">
         <v>965</v>
-      </c>
-      <c r="N91" s="4" t="s">
-        <v>966</v>
       </c>
       <c r="O91" s="4">
         <v>133.47</v>
@@ -9041,44 +9020,44 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="F92" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="G92" s="4" t="s">
         <v>970</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>971</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>395</v>
       </c>
       <c r="I92" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="J92" s="4" t="s">
         <v>972</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>973</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>174</v>
       </c>
       <c r="L92" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="M92" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="M92" s="4" t="s">
+      <c r="N92" s="4" t="s">
         <v>975</v>
-      </c>
-      <c r="N92" s="4" t="s">
-        <v>976</v>
       </c>
       <c r="O92" s="4">
         <v>94.07</v>
@@ -9101,46 +9080,46 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="F93" s="4" t="s">
         <v>981</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>982</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H93" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="I93" s="4" t="s">
-        <v>984</v>
-      </c>
       <c r="J93" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>174</v>
       </c>
       <c r="L93" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="M93" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="M93" s="4" t="s">
+      <c r="N93" s="4" t="s">
         <v>975</v>
-      </c>
-      <c r="N93" s="4" t="s">
-        <v>976</v>
       </c>
       <c r="O93" s="4">
         <v>94.07</v>
@@ -9163,42 +9142,42 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="F94" s="4" t="s">
         <v>988</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>989</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>64</v>
       </c>
       <c r="J94" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="L94" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="L94" s="4" t="s">
+      <c r="M94" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="N94" s="4" t="s">
         <v>993</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>994</v>
       </c>
       <c r="O94" s="4">
         <v>96.71</v>
@@ -9221,46 +9200,46 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>995</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="F95" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="G95" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="H95" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="I95" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="J95" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="I95" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="J95" s="5" t="s">
+      <c r="K95" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="K95" s="5" t="s">
+      <c r="L95" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="L95" s="5" t="s">
+      <c r="M95" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="N95" s="5" t="s">
         <v>1006</v>
-      </c>
-      <c r="N95" s="5" t="s">
-        <v>1007</v>
       </c>
       <c r="O95" s="5">
         <v>94.78</v>
@@ -9283,7 +9262,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -9292,19 +9271,19 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I96" s="4" t="s">
         <v>1009</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>1010</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>302</v>
       </c>
       <c r="K96" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L96" s="4" t="s">
         <v>1011</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>1012</v>
       </c>
       <c r="M96" s="4" t="s">
         <v>237</v>
@@ -9333,7 +9312,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -9342,25 +9321,25 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="J97" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="I97" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="J97" s="4" t="s">
+      <c r="K97" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="L97" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="K97" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>1016</v>
-      </c>
       <c r="M97" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O97" s="4">
         <v>100.41</v>
@@ -9383,7 +9362,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -9392,25 +9371,25 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>381</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O98" s="4">
         <v>100.41</v>
@@ -9433,46 +9412,46 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="F99" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G99" s="4" t="s">
+      <c r="H99" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="I99" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="J99" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="J99" s="4" t="s">
+      <c r="K99" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="K99" s="4" t="s">
+      <c r="L99" s="4" t="s">
         <v>1029</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>1030</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>214</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O99" s="4">
         <v>103.98</v>
@@ -9495,43 +9474,43 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="D100" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="G100" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="H100" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="I100" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="J100" s="4" t="s">
         <v>1040</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>1041</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>236</v>
       </c>
       <c r="L100" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M100" s="4" t="s">
         <v>1042</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>1043</v>
       </c>
       <c r="N100" s="4" t="s">
         <v>59</v>
@@ -9557,7 +9536,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -9585,7 +9564,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -9594,25 +9573,25 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I102" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J102" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="K102" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="L102" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="L102" s="4" t="s">
+      <c r="M102" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="M102" s="4" t="s">
+      <c r="N102" s="4" t="s">
         <v>1050</v>
-      </c>
-      <c r="N102" s="4" t="s">
-        <v>1051</v>
       </c>
       <c r="O102" s="4">
         <v>102.07</v>
@@ -9635,7 +9614,7 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -9644,25 +9623,25 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I103" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="J103" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="J103" s="4" t="s">
+      <c r="K103" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="L103" s="4" t="s">
         <v>1056</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>1057</v>
       </c>
       <c r="M103" s="4" t="s">
         <v>28</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O103" s="4">
         <v>113.04</v>
@@ -9685,34 +9664,34 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>1061</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>1062</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I104" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="J104" s="4" t="s">
         <v>1064</v>
       </c>
-      <c r="J104" s="4" t="s">
+      <c r="K104" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L104" s="4" t="s">
         <v>1065</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L104" s="4" t="s">
-        <v>1066</v>
       </c>
       <c r="M104" s="4" t="s">
         <v>214</v>
@@ -9741,42 +9720,42 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="D105" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>1070</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>1071</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M105" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N105" s="4" t="s">
         <v>1074</v>
-      </c>
-      <c r="N105" s="4" t="s">
-        <v>1075</v>
       </c>
       <c r="O105" s="4">
         <v>165.68</v>
@@ -9799,44 +9778,44 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>1076</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>1077</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="F106" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="G106" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="H106" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="I106" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="I106" s="4" t="s">
+      <c r="J106" s="4" t="s">
         <v>1083</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>1084</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L106" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N106" s="4" t="s">
         <v>1085</v>
-      </c>
-      <c r="M106" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="N106" s="4" t="s">
-        <v>1086</v>
       </c>
       <c r="O106" s="4">
         <v>105.13</v>
@@ -9859,7 +9838,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -9868,20 +9847,20 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I107" s="5" t="s">
         <v>1088</v>
       </c>
-      <c r="I107" s="5" t="s">
+      <c r="J107" s="5" t="s">
         <v>1089</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>1090</v>
       </c>
       <c r="K107" s="5"/>
       <c r="L107" s="5" t="s">
         <v>394</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="N107" s="5" t="s">
         <v>409</v>
@@ -9907,7 +9886,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -9941,9 +9920,9 @@
         <v>117.33</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -9952,10 +9931,10 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>1093</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>1094</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -9973,13 +9952,8 @@
         <v>103.88</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="69.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>1095</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9999,26 +9973,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
